--- a/downloaded_files/SBES436_Lecture-35494.xlsx
+++ b/downloaded_files/SBES436_Lecture-35494.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,69 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1210098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جمانه احمد محمد عبد العزيز العشرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jumana Ahmed Mohamed El-Ashry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رنا ياسر محمد صبري الباجا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana Yasser Mohamed Sabry El Baga</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف هشام عبد العزيز عطيه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saif Hesham Abdelaziz Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>شهاب طارق حلمي الحضري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200424</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد حامد سيد أبو طالب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Hamed Sayed Abu-Taleb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مؤمن ايهاب مصطفى السيد مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moamen Ihab Moustafa Elsayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ابراهيم محمد الحسينى مرسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHAMED IBRAHIM MOHAMED ELHOSSEINI MORSI</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200434</x:t>
   </x:si>
   <x:si>
@@ -105,51 +42,6 @@
     <x:t>Mohammad Tamer Mostafa Alsaid Abualfadl</x:t>
   </x:si>
   <x:si>
-    <x:t>1200246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد جلال عبدالعليم ابو زينة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed galal Abdaleem abu zeina</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود عمرو محمد عدلى عبد الحليم رسلان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Amr Mohamed Adly Abdel-Halim Raslan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم محمد على سليمان عيطة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maryam Mohamed Ali Soliman Aitah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ندى عمر صالح محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nada Omar Saleh Mohammad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210087</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نوران محمد عبد الرحمن عبود هريدى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nouran Mohamed Adelrhman Aboud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210329</x:t>
   </x:si>
   <x:si>
@@ -157,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>YOUSRA HATEM MAHROUS ABDELWAHAB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1190292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف رأفت فتحى محمد حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Rafaat fathey mohamed Hussien</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -281,7 +164,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +464,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -589,8 +472,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.860625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="46.740625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="26.630625000000002" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="39.940625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -672,7 +555,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4155689815</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -704,7 +587,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4520304398</x:v>
+        <x:v>45906.6686669792</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -721,422 +604,6 @@
       <x:c r="R3" s="2" t="s"/>
       <x:c r="S3" s="2" t="s"/>
       <x:c r="T3" s="2" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:20">
-      <x:c r="A4" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="3">
-        <x:v>45909.4149723032</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s"/>
-      <x:c r="G4" s="2" t="s"/>
-      <x:c r="H4" s="2" t="s"/>
-      <x:c r="I4" s="2" t="s"/>
-      <x:c r="J4" s="2" t="s"/>
-      <x:c r="K4" s="2" t="s"/>
-      <x:c r="L4" s="2" t="s"/>
-      <x:c r="M4" s="2" t="s"/>
-      <x:c r="N4" s="2" t="s"/>
-      <x:c r="O4" s="2" t="s"/>
-      <x:c r="P4" s="2" t="s"/>
-      <x:c r="Q4" s="2" t="s"/>
-      <x:c r="R4" s="2" t="s"/>
-      <x:c r="S4" s="2" t="s"/>
-      <x:c r="T4" s="2" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:20">
-      <x:c r="A5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="3">
-        <x:v>45906.4146051273</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s"/>
-      <x:c r="G5" s="2" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
-      <x:c r="I5" s="2" t="s"/>
-      <x:c r="J5" s="2" t="s"/>
-      <x:c r="K5" s="2" t="s"/>
-      <x:c r="L5" s="2" t="s"/>
-      <x:c r="M5" s="2" t="s"/>
-      <x:c r="N5" s="2" t="s"/>
-      <x:c r="O5" s="2" t="s"/>
-      <x:c r="P5" s="2" t="s"/>
-      <x:c r="Q5" s="2" t="s"/>
-      <x:c r="R5" s="2" t="s"/>
-      <x:c r="S5" s="2" t="s"/>
-      <x:c r="T5" s="2" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:20">
-      <x:c r="A6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="3">
-        <x:v>45906.6677939815</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="s"/>
-      <x:c r="G6" s="2" t="s"/>
-      <x:c r="H6" s="2" t="s"/>
-      <x:c r="I6" s="2" t="s"/>
-      <x:c r="J6" s="2" t="s"/>
-      <x:c r="K6" s="2" t="s"/>
-      <x:c r="L6" s="2" t="s"/>
-      <x:c r="M6" s="2" t="s"/>
-      <x:c r="N6" s="2" t="s"/>
-      <x:c r="O6" s="2" t="s"/>
-      <x:c r="P6" s="2" t="s"/>
-      <x:c r="Q6" s="2" t="s"/>
-      <x:c r="R6" s="2" t="s"/>
-      <x:c r="S6" s="2" t="s"/>
-      <x:c r="T6" s="2" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:20">
-      <x:c r="A7" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E7" s="3">
-        <x:v>45907.4151895486</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s"/>
-      <x:c r="G7" s="2" t="s"/>
-      <x:c r="H7" s="2" t="s"/>
-      <x:c r="I7" s="2" t="s"/>
-      <x:c r="J7" s="2" t="s"/>
-      <x:c r="K7" s="2" t="s"/>
-      <x:c r="L7" s="2" t="s"/>
-      <x:c r="M7" s="2" t="s"/>
-      <x:c r="N7" s="2" t="s"/>
-      <x:c r="O7" s="2" t="s"/>
-      <x:c r="P7" s="2" t="s"/>
-      <x:c r="Q7" s="2" t="s"/>
-      <x:c r="R7" s="2" t="s"/>
-      <x:c r="S7" s="2" t="s"/>
-      <x:c r="T7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:20">
-      <x:c r="A8" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E8" s="3">
-        <x:v>45909.7467455208</x:v>
-      </x:c>
-      <x:c r="F8" s="2" t="s"/>
-      <x:c r="G8" s="2" t="s"/>
-      <x:c r="H8" s="2" t="s"/>
-      <x:c r="I8" s="2" t="s"/>
-      <x:c r="J8" s="2" t="s"/>
-      <x:c r="K8" s="2" t="s"/>
-      <x:c r="L8" s="2" t="s"/>
-      <x:c r="M8" s="2" t="s"/>
-      <x:c r="N8" s="2" t="s"/>
-      <x:c r="O8" s="2" t="s"/>
-      <x:c r="P8" s="2" t="s"/>
-      <x:c r="Q8" s="2" t="s"/>
-      <x:c r="R8" s="2" t="s"/>
-      <x:c r="S8" s="2" t="s"/>
-      <x:c r="T8" s="2" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:20">
-      <x:c r="A9" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E9" s="3">
-        <x:v>45906.4151915856</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s"/>
-      <x:c r="G9" s="2" t="s"/>
-      <x:c r="H9" s="2" t="s"/>
-      <x:c r="I9" s="2" t="s"/>
-      <x:c r="J9" s="2" t="s"/>
-      <x:c r="K9" s="2" t="s"/>
-      <x:c r="L9" s="2" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:20">
-      <x:c r="A10" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E10" s="3">
-        <x:v>45906.6750576389</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s"/>
-      <x:c r="G10" s="2" t="s"/>
-      <x:c r="H10" s="2" t="s"/>
-      <x:c r="I10" s="2" t="s"/>
-      <x:c r="J10" s="2" t="s"/>
-      <x:c r="K10" s="2" t="s"/>
-      <x:c r="L10" s="2" t="s"/>
-      <x:c r="M10" s="2" t="s"/>
-      <x:c r="N10" s="2" t="s"/>
-      <x:c r="O10" s="2" t="s"/>
-      <x:c r="P10" s="2" t="s"/>
-      <x:c r="Q10" s="2" t="s"/>
-      <x:c r="R10" s="2" t="s"/>
-      <x:c r="S10" s="2" t="s"/>
-      <x:c r="T10" s="2" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:20">
-      <x:c r="A11" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E11" s="3">
-        <x:v>45906.4155145833</x:v>
-      </x:c>
-      <x:c r="F11" s="2" t="s"/>
-      <x:c r="G11" s="2" t="s"/>
-      <x:c r="H11" s="2" t="s"/>
-      <x:c r="I11" s="2" t="s"/>
-      <x:c r="J11" s="2" t="s"/>
-      <x:c r="K11" s="2" t="s"/>
-      <x:c r="L11" s="2" t="s"/>
-      <x:c r="M11" s="2" t="s"/>
-      <x:c r="N11" s="2" t="s"/>
-      <x:c r="O11" s="2" t="s"/>
-      <x:c r="P11" s="2" t="s"/>
-      <x:c r="Q11" s="2" t="s"/>
-      <x:c r="R11" s="2" t="s"/>
-      <x:c r="S11" s="2" t="s"/>
-      <x:c r="T11" s="2" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:20">
-      <x:c r="A12" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E12" s="3">
-        <x:v>45907.4195628125</x:v>
-      </x:c>
-      <x:c r="F12" s="2" t="s"/>
-      <x:c r="G12" s="2" t="s"/>
-      <x:c r="H12" s="2" t="s"/>
-      <x:c r="I12" s="2" t="s"/>
-      <x:c r="J12" s="2" t="s"/>
-      <x:c r="K12" s="2" t="s"/>
-      <x:c r="L12" s="2" t="s"/>
-      <x:c r="M12" s="2" t="s"/>
-      <x:c r="N12" s="2" t="s"/>
-      <x:c r="O12" s="2" t="s"/>
-      <x:c r="P12" s="2" t="s"/>
-      <x:c r="Q12" s="2" t="s"/>
-      <x:c r="R12" s="2" t="s"/>
-      <x:c r="S12" s="2" t="s"/>
-      <x:c r="T12" s="2" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:20">
-      <x:c r="A13" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E13" s="3">
-        <x:v>45906.4148792014</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s"/>
-      <x:c r="G13" s="2" t="s"/>
-      <x:c r="H13" s="2" t="s"/>
-      <x:c r="I13" s="2" t="s"/>
-      <x:c r="J13" s="2" t="s"/>
-      <x:c r="K13" s="2" t="s"/>
-      <x:c r="L13" s="2" t="s"/>
-      <x:c r="M13" s="2" t="s"/>
-      <x:c r="N13" s="2" t="s"/>
-      <x:c r="O13" s="2" t="s"/>
-      <x:c r="P13" s="2" t="s"/>
-      <x:c r="Q13" s="2" t="s"/>
-      <x:c r="R13" s="2" t="s"/>
-      <x:c r="S13" s="2" t="s"/>
-      <x:c r="T13" s="2" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:20">
-      <x:c r="A14" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E14" s="3">
-        <x:v>45906.4450273958</x:v>
-      </x:c>
-      <x:c r="F14" s="2" t="s"/>
-      <x:c r="G14" s="2" t="s"/>
-      <x:c r="H14" s="2" t="s"/>
-      <x:c r="I14" s="2" t="s"/>
-      <x:c r="J14" s="2" t="s"/>
-      <x:c r="K14" s="2" t="s"/>
-      <x:c r="L14" s="2" t="s"/>
-      <x:c r="M14" s="2" t="s"/>
-      <x:c r="N14" s="2" t="s"/>
-      <x:c r="O14" s="2" t="s"/>
-      <x:c r="P14" s="2" t="s"/>
-      <x:c r="Q14" s="2" t="s"/>
-      <x:c r="R14" s="2" t="s"/>
-      <x:c r="S14" s="2" t="s"/>
-      <x:c r="T14" s="2" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20">
-      <x:c r="A15" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E15" s="3">
-        <x:v>45906.6686669792</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="2" t="s"/>
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="2" t="s"/>
-      <x:c r="K15" s="2" t="s"/>
-      <x:c r="L15" s="2" t="s"/>
-      <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="2" t="s"/>
-      <x:c r="Q15" s="2" t="s"/>
-      <x:c r="R15" s="2" t="s"/>
-      <x:c r="S15" s="2" t="s"/>
-      <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45906.6780194444</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES436_Lecture-35494.xlsx
+++ b/downloaded_files/SBES436_Lecture-35494.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,24 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد تامر مصطفي السيد أبو الفضل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Tamer Mostafa Alsaid Abualfadl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يسرا حاتم محروس عبد الوهاب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOUSRA HATEM MAHROUS ABDELWAHAB</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -125,35 +107,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -164,7 +132,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -464,17 +432,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T3"/>
+  <x:dimension ref="A1:T2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="26.630625000000002" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="39.940625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -542,68 +510,11 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E2" s="3">
-        <x:v>45906.4151915856</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s"/>
-      <x:c r="G2" s="2" t="s"/>
-      <x:c r="H2" s="2" t="s"/>
-      <x:c r="I2" s="2" t="s"/>
-      <x:c r="J2" s="2" t="s"/>
-      <x:c r="K2" s="2" t="s"/>
-      <x:c r="L2" s="2" t="s"/>
-      <x:c r="M2" s="2" t="s"/>
-      <x:c r="N2" s="2" t="s"/>
-      <x:c r="O2" s="2" t="s"/>
-      <x:c r="P2" s="2" t="s"/>
-      <x:c r="Q2" s="2" t="s"/>
-      <x:c r="R2" s="2" t="s"/>
-      <x:c r="S2" s="2" t="s"/>
-      <x:c r="T2" s="2" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:20">
-      <x:c r="A3" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E3" s="3">
-        <x:v>45906.6686669792</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s"/>
-      <x:c r="G3" s="2" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="2" t="s"/>
-      <x:c r="K3" s="2" t="s"/>
-      <x:c r="L3" s="2" t="s"/>
-      <x:c r="M3" s="2" t="s"/>
-      <x:c r="N3" s="2" t="s"/>
-      <x:c r="O3" s="2" t="s"/>
-      <x:c r="P3" s="2" t="s"/>
-      <x:c r="Q3" s="2" t="s"/>
-      <x:c r="R3" s="2" t="s"/>
-      <x:c r="S3" s="2" t="s"/>
-      <x:c r="T3" s="2" t="s"/>
+      <x:c r="A2" s="0" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
